--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H2">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>11.78042538637066</v>
+        <v>2.322282371129333</v>
       </c>
       <c r="R2">
-        <v>106.023828477336</v>
+        <v>20.900541340164</v>
       </c>
       <c r="S2">
-        <v>0.0160171349729683</v>
+        <v>0.005014047802963354</v>
       </c>
       <c r="T2">
-        <v>0.0160171349729683</v>
+        <v>0.005014047802963354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H3">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>66.89947896514089</v>
+        <v>22.03810452378066</v>
       </c>
       <c r="R3">
-        <v>602.095310686268</v>
+        <v>198.342940714026</v>
       </c>
       <c r="S3">
-        <v>0.09095919281876087</v>
+        <v>0.04758254678357766</v>
       </c>
       <c r="T3">
-        <v>0.09095919281876086</v>
+        <v>0.04758254678357768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H4">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>6.030664306193333</v>
+        <v>4.575259369763999</v>
       </c>
       <c r="R4">
-        <v>54.27597875573999</v>
+        <v>41.177334327876</v>
       </c>
       <c r="S4">
-        <v>0.008199531086603627</v>
+        <v>0.009878458139350474</v>
       </c>
       <c r="T4">
-        <v>0.008199531086603625</v>
+        <v>0.009878458139350477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N5">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q5">
-        <v>16.47879498809133</v>
+        <v>9.861159877428223</v>
       </c>
       <c r="R5">
-        <v>148.309154892822</v>
+        <v>88.75043889685401</v>
       </c>
       <c r="S5">
-        <v>0.0224052251815542</v>
+        <v>0.02129126398786915</v>
       </c>
       <c r="T5">
-        <v>0.0224052251815542</v>
+        <v>0.02129126398786915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
         <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P6">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q6">
-        <v>93.5808990354568</v>
+        <v>93.58089903545678</v>
       </c>
       <c r="R6">
-        <v>842.2280913191111</v>
+        <v>842.2280913191109</v>
       </c>
       <c r="S6">
-        <v>0.1272363129158966</v>
+        <v>0.2020508388822177</v>
       </c>
       <c r="T6">
-        <v>0.1272363129158966</v>
+        <v>0.2020508388822178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N7">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O7">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P7">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q7">
-        <v>8.435865215761668</v>
+        <v>19.428026792454</v>
       </c>
       <c r="R7">
-        <v>75.92278694185501</v>
+        <v>174.852241132086</v>
       </c>
       <c r="S7">
-        <v>0.01146973792058034</v>
+        <v>0.04194711903498836</v>
       </c>
       <c r="T7">
-        <v>0.01146973792058034</v>
+        <v>0.04194711903498837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H8">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N8">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q8">
-        <v>74.02285072183467</v>
+        <v>24.98791287327511</v>
       </c>
       <c r="R8">
-        <v>666.205656496512</v>
+        <v>224.891215859476</v>
       </c>
       <c r="S8">
-        <v>0.1006444124222565</v>
+        <v>0.05395148807074465</v>
       </c>
       <c r="T8">
-        <v>0.1006444124222565</v>
+        <v>0.05395148807074465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H9">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
         <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P9">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q9">
-        <v>420.3659869986063</v>
+        <v>237.1314714259149</v>
       </c>
       <c r="R9">
-        <v>3783.293882987456</v>
+        <v>2134.183242833234</v>
       </c>
       <c r="S9">
-        <v>0.571546317808821</v>
+        <v>0.5119913702563083</v>
       </c>
       <c r="T9">
-        <v>0.571546317808821</v>
+        <v>0.5119913702563084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H10">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N10">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O10">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P10">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q10">
-        <v>37.89395960245334</v>
+        <v>49.230095325876</v>
       </c>
       <c r="R10">
-        <v>341.04563642208</v>
+        <v>443.0708579328841</v>
       </c>
       <c r="S10">
-        <v>0.05152213487255864</v>
+        <v>0.1062928670419803</v>
       </c>
       <c r="T10">
-        <v>0.05152213487255863</v>
+        <v>0.1062928670419804</v>
       </c>
     </row>
   </sheetData>
